--- a/moveset_key.xlsx
+++ b/moveset_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangmy/Projects/Sokoban/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02167E07-426D-0A4F-98BC-8DA560D70939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0D82D-A408-DD4C-9D46-C78F36E091ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6078,8 +6078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B686"/>
   <sheetViews>
-    <sheetView topLeftCell="A668" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B686" sqref="A2:B686"/>
+    <sheetView topLeftCell="A623" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B659" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11582,8 +11582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5604167C-411D-4BFC-BE04-DF6BCA1B5494}">
   <dimension ref="A1:B726"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B726"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17406,7 +17406,7 @@
   <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B428"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20844,8 +20844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002FB409-FC91-4228-805A-60034DC26D3A}">
   <dimension ref="A1:B1837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1384" workbookViewId="0">
-      <selection activeCell="E1413" sqref="E1413"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
+      <selection activeCell="F1391" sqref="F1391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
